--- a/data/outputs/OR/52.xlsx
+++ b/data/outputs/OR/52.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ139"/>
+  <dimension ref="A1:BR139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -925,6 +930,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>2548570</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1138,6 +1148,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>2781331</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1343,6 +1358,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1548,6 +1564,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>2153742</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1765,6 +1786,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>4448532</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1970,6 +1996,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2191,6 +2218,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2400,6 +2428,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2617,6 +2646,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2838,6 +2868,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3051,6 +3082,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3256,6 +3288,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3461,6 +3494,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3678,6 +3712,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>3890523</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3764,7 +3803,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>De Koster, Rene/0000-0002-1740-7822; </t>
+          <t>De Koster, Rene/0000-0002-1740-7822;</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -3899,6 +3938,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4108,6 +4148,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4329,6 +4370,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4546,6 +4588,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>3104254</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4751,6 +4798,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4964,6 +5012,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5173,6 +5222,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>4549527</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5386,6 +5440,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5595,6 +5650,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>19475888</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5812,6 +5872,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6033,6 +6094,11 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>4448521</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6242,6 +6308,11 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>3896152</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6455,6 +6526,11 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>4227880</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6676,6 +6752,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6893,6 +6970,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7098,6 +7176,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7311,6 +7390,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7524,6 +7604,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7713,6 +7794,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7934,6 +8016,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8151,6 +8234,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8356,6 +8440,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>4406378</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8569,6 +8658,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8778,6 +8868,11 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>2690898</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8987,6 +9082,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9208,6 +9304,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9417,6 +9514,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9622,6 +9720,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9839,6 +9938,11 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>3093185</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10052,6 +10156,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10265,6 +10370,11 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>2126130</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10478,6 +10588,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>9907361</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10683,6 +10798,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10900,6 +11016,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11109,6 +11226,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11314,6 +11432,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11523,6 +11642,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11736,6 +11856,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11945,6 +12066,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12154,6 +12276,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12359,6 +12482,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12572,6 +12696,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12785,6 +12910,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12994,6 +13120,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13211,6 +13338,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13424,6 +13552,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13637,6 +13766,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13850,6 +13980,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14055,6 +14186,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14272,6 +14404,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14481,6 +14614,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14686,6 +14820,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14891,6 +15026,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15104,6 +15240,11 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr">
+        <is>
+          <t>15332123</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15317,6 +15458,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15522,6 +15664,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15743,6 +15886,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15956,6 +16100,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16169,6 +16314,11 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr">
+        <is>
+          <t>9906429</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16390,6 +16540,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16595,6 +16746,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16796,6 +16948,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17005,6 +17158,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17210,6 +17364,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17415,6 +17570,11 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr">
+        <is>
+          <t>3125027</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17628,6 +17788,11 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr">
+        <is>
+          <t>3906740</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17833,6 +17998,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18046,6 +18212,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18263,6 +18430,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18476,6 +18644,11 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr">
+        <is>
+          <t>5452557</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18697,6 +18870,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18910,6 +19084,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19127,6 +19302,11 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr">
+        <is>
+          <t>2345428</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19340,6 +19520,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19557,6 +19738,11 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr">
+        <is>
+          <t>4812805</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19762,6 +19948,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19967,6 +20154,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20172,6 +20360,11 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr">
+        <is>
+          <t>12510683</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20377,6 +20570,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20598,6 +20792,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20803,6 +20998,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21016,6 +21212,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21229,6 +21426,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21434,6 +21632,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21647,6 +21846,11 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr">
+        <is>
+          <t>4448526</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21868,6 +22072,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22081,6 +22286,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22294,6 +22500,11 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr">
+        <is>
+          <t>3035548</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22507,6 +22718,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22712,6 +22924,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22909,6 +23122,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23122,6 +23336,11 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr">
+        <is>
+          <t>4448531</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23327,6 +23546,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23532,6 +23752,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23737,6 +23958,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23954,6 +24176,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24159,6 +24382,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24372,6 +24596,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24577,6 +24802,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24786,6 +25012,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24987,6 +25214,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25188,6 +25416,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25393,6 +25622,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25602,6 +25832,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25795,6 +26026,7 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25976,6 +26208,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26189,6 +26422,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26370,6 +26604,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26583,6 +26818,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26792,6 +27028,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -26973,6 +27210,7 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27150,6 +27388,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27327,6 +27566,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27504,6 +27744,7 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -27681,6 +27922,7 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -27858,6 +28100,7 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28035,6 +28278,7 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28212,6 +28456,7 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -28389,6 +28634,7 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -28566,6 +28812,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -28743,6 +28990,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -28936,6 +29184,7 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29125,6 +29374,7 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -29298,6 +29548,11 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr">
+        <is>
+          <t>18322730</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
